--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP3 codes - 2016.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP3 codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1286" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="225">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -688,7 +688,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 03:58:30</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:37:15</t>
   </si>
 </sst>
 </file>
@@ -3326,11 +3326,11 @@
       <c r="BX7" t="n" s="10">
         <v>115.5</v>
       </c>
-      <c r="BY7" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ7" t="s" s="10">
-        <v>26</v>
+      <c r="BY7" t="n" s="10">
+        <v>118.9</v>
+      </c>
+      <c r="BZ7" t="n" s="10">
+        <v>109.2</v>
       </c>
       <c r="CA7" t="s" s="10">
         <v>26</v>
@@ -3586,11 +3586,11 @@
       <c r="BX8" t="n" s="10">
         <v>173.1</v>
       </c>
-      <c r="BY8" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ8" t="s" s="10">
-        <v>26</v>
+      <c r="BY8" t="n" s="10">
+        <v>201.2</v>
+      </c>
+      <c r="BZ8" t="n" s="10">
+        <v>211.6</v>
       </c>
       <c r="CA8" t="s" s="10">
         <v>26</v>
@@ -3846,11 +3846,11 @@
       <c r="BX9" t="n" s="10">
         <v>304.7</v>
       </c>
-      <c r="BY9" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ9" t="s" s="10">
-        <v>26</v>
+      <c r="BY9" t="n" s="10">
+        <v>315.0</v>
+      </c>
+      <c r="BZ9" t="n" s="10">
+        <v>358.6</v>
       </c>
       <c r="CA9" t="s" s="10">
         <v>26</v>
@@ -4106,11 +4106,11 @@
       <c r="BX10" t="n" s="10">
         <v>127.6</v>
       </c>
-      <c r="BY10" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ10" t="s" s="10">
-        <v>26</v>
+      <c r="BY10" t="n" s="10">
+        <v>128.5</v>
+      </c>
+      <c r="BZ10" t="n" s="10">
+        <v>131.4</v>
       </c>
       <c r="CA10" t="s" s="10">
         <v>26</v>
@@ -4366,11 +4366,11 @@
       <c r="BX11" t="n" s="10">
         <v>106.8</v>
       </c>
-      <c r="BY11" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ11" t="s" s="10">
-        <v>26</v>
+      <c r="BY11" t="n" s="10">
+        <v>107.4</v>
+      </c>
+      <c r="BZ11" t="n" s="10">
+        <v>102.2</v>
       </c>
       <c r="CA11" t="s" s="10">
         <v>26</v>
@@ -4626,11 +4626,11 @@
       <c r="BX12" t="n" s="10">
         <v>110.8</v>
       </c>
-      <c r="BY12" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ12" t="s" s="10">
-        <v>26</v>
+      <c r="BY12" t="n" s="10">
+        <v>120.7</v>
+      </c>
+      <c r="BZ12" t="n" s="10">
+        <v>136.2</v>
       </c>
       <c r="CA12" t="s" s="10">
         <v>26</v>
@@ -4886,11 +4886,11 @@
       <c r="BX13" t="n" s="10">
         <v>117.4</v>
       </c>
-      <c r="BY13" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ13" t="s" s="10">
-        <v>26</v>
+      <c r="BY13" t="n" s="10">
+        <v>118.0</v>
+      </c>
+      <c r="BZ13" t="n" s="10">
+        <v>120.5</v>
       </c>
       <c r="CA13" t="s" s="10">
         <v>26</v>
@@ -5146,11 +5146,11 @@
       <c r="BX14" t="n" s="10">
         <v>114.9</v>
       </c>
-      <c r="BY14" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ14" t="s" s="10">
-        <v>26</v>
+      <c r="BY14" t="n" s="10">
+        <v>115.5</v>
+      </c>
+      <c r="BZ14" t="n" s="10">
+        <v>116.9</v>
       </c>
       <c r="CA14" t="s" s="10">
         <v>26</v>
@@ -5406,11 +5406,11 @@
       <c r="BX15" t="n" s="10">
         <v>161.2</v>
       </c>
-      <c r="BY15" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ15" t="s" s="10">
-        <v>26</v>
+      <c r="BY15" t="n" s="10">
+        <v>190.4</v>
+      </c>
+      <c r="BZ15" t="n" s="10">
+        <v>198.8</v>
       </c>
       <c r="CA15" t="s" s="10">
         <v>26</v>
@@ -5666,11 +5666,11 @@
       <c r="BX16" t="n" s="10">
         <v>127.8</v>
       </c>
-      <c r="BY16" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ16" t="s" s="10">
-        <v>26</v>
+      <c r="BY16" t="n" s="10">
+        <v>129.9</v>
+      </c>
+      <c r="BZ16" t="n" s="10">
+        <v>133.8</v>
       </c>
       <c r="CA16" t="s" s="10">
         <v>26</v>
@@ -5926,11 +5926,11 @@
       <c r="BX17" t="n" s="10">
         <v>121.7</v>
       </c>
-      <c r="BY17" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ17" t="s" s="10">
-        <v>26</v>
+      <c r="BY17" t="n" s="10">
+        <v>130.6</v>
+      </c>
+      <c r="BZ17" t="n" s="10">
+        <v>137.0</v>
       </c>
       <c r="CA17" t="s" s="10">
         <v>26</v>
@@ -6186,11 +6186,11 @@
       <c r="BX18" t="n" s="10">
         <v>121.4</v>
       </c>
-      <c r="BY18" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ18" t="s" s="10">
-        <v>26</v>
+      <c r="BY18" t="n" s="10">
+        <v>121.8</v>
+      </c>
+      <c r="BZ18" t="n" s="10">
+        <v>123.4</v>
       </c>
       <c r="CA18" t="s" s="10">
         <v>26</v>
@@ -6446,11 +6446,11 @@
       <c r="BX19" t="n" s="10">
         <v>108.7</v>
       </c>
-      <c r="BY19" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ19" t="s" s="10">
-        <v>26</v>
+      <c r="BY19" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BZ19" t="n" s="10">
+        <v>111.5</v>
       </c>
       <c r="CA19" t="s" s="10">
         <v>26</v>
@@ -6706,11 +6706,11 @@
       <c r="BX20" t="n" s="10">
         <v>134.7</v>
       </c>
-      <c r="BY20" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ20" t="s" s="10">
-        <v>26</v>
+      <c r="BY20" t="n" s="10">
+        <v>156.1</v>
+      </c>
+      <c r="BZ20" t="n" s="10">
+        <v>163.3</v>
       </c>
       <c r="CA20" t="s" s="10">
         <v>26</v>
@@ -6966,11 +6966,11 @@
       <c r="BX21" t="n" s="10">
         <v>112.0</v>
       </c>
-      <c r="BY21" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ21" t="s" s="10">
-        <v>26</v>
+      <c r="BY21" t="n" s="10">
+        <v>113.0</v>
+      </c>
+      <c r="BZ21" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="CA21" t="s" s="10">
         <v>26</v>
@@ -7226,11 +7226,11 @@
       <c r="BX22" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="BY22" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ22" t="s" s="10">
-        <v>26</v>
+      <c r="BY22" t="n" s="10">
+        <v>119.5</v>
+      </c>
+      <c r="BZ22" t="n" s="10">
+        <v>119.6</v>
       </c>
       <c r="CA22" t="s" s="10">
         <v>26</v>
@@ -7486,11 +7486,11 @@
       <c r="BX23" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="BY23" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ23" t="s" s="10">
-        <v>26</v>
+      <c r="BY23" t="n" s="10">
+        <v>117.3</v>
+      </c>
+      <c r="BZ23" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CA23" t="s" s="10">
         <v>26</v>
@@ -7746,11 +7746,11 @@
       <c r="BX24" t="n" s="10">
         <v>109.9</v>
       </c>
-      <c r="BY24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ24" t="s" s="10">
-        <v>26</v>
+      <c r="BY24" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BZ24" t="n" s="10">
+        <v>111.8</v>
       </c>
       <c r="CA24" t="s" s="10">
         <v>26</v>
@@ -8006,11 +8006,11 @@
       <c r="BX25" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BY25" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ25" t="s" s="10">
-        <v>26</v>
+      <c r="BY25" t="n" s="10">
+        <v>111.2</v>
+      </c>
+      <c r="BZ25" t="n" s="10">
+        <v>112.8</v>
       </c>
       <c r="CA25" t="s" s="10">
         <v>26</v>
@@ -8266,11 +8266,11 @@
       <c r="BX26" t="n" s="10">
         <v>112.6</v>
       </c>
-      <c r="BY26" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ26" t="s" s="10">
-        <v>26</v>
+      <c r="BY26" t="n" s="10">
+        <v>113.7</v>
+      </c>
+      <c r="BZ26" t="n" s="10">
+        <v>115.4</v>
       </c>
       <c r="CA26" t="s" s="10">
         <v>26</v>
@@ -8526,11 +8526,11 @@
       <c r="BX27" t="n" s="10">
         <v>107.4</v>
       </c>
-      <c r="BY27" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ27" t="s" s="10">
-        <v>26</v>
+      <c r="BY27" t="n" s="10">
+        <v>107.7</v>
+      </c>
+      <c r="BZ27" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="CA27" t="s" s="10">
         <v>26</v>
@@ -8786,11 +8786,11 @@
       <c r="BX28" t="n" s="10">
         <v>107.9</v>
       </c>
-      <c r="BY28" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ28" t="s" s="10">
-        <v>26</v>
+      <c r="BY28" t="n" s="10">
+        <v>107.9</v>
+      </c>
+      <c r="BZ28" t="n" s="10">
+        <v>107.9</v>
       </c>
       <c r="CA28" t="s" s="10">
         <v>26</v>
@@ -9046,11 +9046,11 @@
       <c r="BX29" t="n" s="10">
         <v>104.6</v>
       </c>
-      <c r="BY29" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ29" t="s" s="10">
-        <v>26</v>
+      <c r="BY29" t="n" s="10">
+        <v>104.7</v>
+      </c>
+      <c r="BZ29" t="n" s="10">
+        <v>104.7</v>
       </c>
       <c r="CA29" t="s" s="10">
         <v>26</v>
@@ -9306,11 +9306,11 @@
       <c r="BX30" t="n" s="10">
         <v>110.3</v>
       </c>
-      <c r="BY30" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ30" t="s" s="10">
-        <v>26</v>
+      <c r="BY30" t="n" s="10">
+        <v>111.6</v>
+      </c>
+      <c r="BZ30" t="n" s="10">
+        <v>112.1</v>
       </c>
       <c r="CA30" t="s" s="10">
         <v>26</v>
@@ -9566,11 +9566,11 @@
       <c r="BX31" t="n" s="10">
         <v>160.0</v>
       </c>
-      <c r="BY31" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ31" t="s" s="10">
-        <v>26</v>
+      <c r="BY31" t="n" s="10">
+        <v>171.5</v>
+      </c>
+      <c r="BZ31" t="n" s="10">
+        <v>181.8</v>
       </c>
       <c r="CA31" t="s" s="10">
         <v>26</v>
@@ -9826,11 +9826,11 @@
       <c r="BX32" t="n" s="10">
         <v>141.1</v>
       </c>
-      <c r="BY32" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ32" t="s" s="10">
-        <v>26</v>
+      <c r="BY32" t="n" s="10">
+        <v>144.8</v>
+      </c>
+      <c r="BZ32" t="n" s="10">
+        <v>150.7</v>
       </c>
       <c r="CA32" t="s" s="10">
         <v>26</v>
@@ -10086,11 +10086,11 @@
       <c r="BX33" t="n" s="10">
         <v>143.8</v>
       </c>
-      <c r="BY33" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ33" t="s" s="10">
-        <v>26</v>
+      <c r="BY33" t="n" s="10">
+        <v>147.0</v>
+      </c>
+      <c r="BZ33" t="n" s="10">
+        <v>157.8</v>
       </c>
       <c r="CA33" t="s" s="10">
         <v>26</v>
@@ -10346,11 +10346,11 @@
       <c r="BX34" t="n" s="10">
         <v>122.7</v>
       </c>
-      <c r="BY34" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ34" t="s" s="10">
-        <v>26</v>
+      <c r="BY34" t="n" s="10">
+        <v>124.8</v>
+      </c>
+      <c r="BZ34" t="n" s="10">
+        <v>128.4</v>
       </c>
       <c r="CA34" t="s" s="10">
         <v>26</v>
@@ -10606,11 +10606,11 @@
       <c r="BX35" t="n" s="10">
         <v>109.0</v>
       </c>
-      <c r="BY35" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ35" t="s" s="10">
-        <v>26</v>
+      <c r="BY35" t="n" s="10">
+        <v>111.4</v>
+      </c>
+      <c r="BZ35" t="n" s="10">
+        <v>116.0</v>
       </c>
       <c r="CA35" t="s" s="10">
         <v>26</v>
@@ -10866,11 +10866,11 @@
       <c r="BX36" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="BY36" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ36" t="s" s="10">
-        <v>26</v>
+      <c r="BY36" t="n" s="10">
+        <v>120.6</v>
+      </c>
+      <c r="BZ36" t="n" s="10">
+        <v>124.1</v>
       </c>
       <c r="CA36" t="s" s="10">
         <v>26</v>
@@ -11126,11 +11126,11 @@
       <c r="BX37" t="n" s="10">
         <v>149.4</v>
       </c>
-      <c r="BY37" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ37" t="s" s="10">
-        <v>26</v>
+      <c r="BY37" t="n" s="10">
+        <v>165.5</v>
+      </c>
+      <c r="BZ37" t="n" s="10">
+        <v>180.5</v>
       </c>
       <c r="CA37" t="s" s="10">
         <v>26</v>
@@ -11386,11 +11386,11 @@
       <c r="BX38" t="n" s="10">
         <v>141.8</v>
       </c>
-      <c r="BY38" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ38" t="s" s="10">
-        <v>26</v>
+      <c r="BY38" t="n" s="10">
+        <v>178.4</v>
+      </c>
+      <c r="BZ38" t="n" s="10">
+        <v>170.2</v>
       </c>
       <c r="CA38" t="s" s="10">
         <v>26</v>
@@ -11646,11 +11646,11 @@
       <c r="BX39" t="n" s="10">
         <v>135.4</v>
       </c>
-      <c r="BY39" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ39" t="s" s="10">
-        <v>26</v>
+      <c r="BY39" t="n" s="10">
+        <v>139.7</v>
+      </c>
+      <c r="BZ39" t="n" s="10">
+        <v>148.1</v>
       </c>
       <c r="CA39" t="s" s="10">
         <v>26</v>
@@ -11906,11 +11906,11 @@
       <c r="BX40" t="n" s="10">
         <v>115.2</v>
       </c>
-      <c r="BY40" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ40" t="s" s="10">
-        <v>26</v>
+      <c r="BY40" t="n" s="10">
+        <v>115.7</v>
+      </c>
+      <c r="BZ40" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="CA40" t="s" s="10">
         <v>26</v>
@@ -12166,11 +12166,11 @@
       <c r="BX41" t="n" s="10">
         <v>119.5</v>
       </c>
-      <c r="BY41" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ41" t="s" s="10">
-        <v>26</v>
+      <c r="BY41" t="n" s="10">
+        <v>120.7</v>
+      </c>
+      <c r="BZ41" t="n" s="10">
+        <v>122.8</v>
       </c>
       <c r="CA41" t="s" s="10">
         <v>26</v>
@@ -12426,11 +12426,11 @@
       <c r="BX42" t="n" s="10">
         <v>113.7</v>
       </c>
-      <c r="BY42" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ42" t="s" s="10">
-        <v>26</v>
+      <c r="BY42" t="n" s="10">
+        <v>114.9</v>
+      </c>
+      <c r="BZ42" t="n" s="10">
+        <v>117.6</v>
       </c>
       <c r="CA42" t="s" s="10">
         <v>26</v>
@@ -12686,11 +12686,11 @@
       <c r="BX43" t="n" s="10">
         <v>138.9</v>
       </c>
-      <c r="BY43" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ43" t="s" s="10">
-        <v>26</v>
+      <c r="BY43" t="n" s="10">
+        <v>142.1</v>
+      </c>
+      <c r="BZ43" t="n" s="10">
+        <v>150.2</v>
       </c>
       <c r="CA43" t="s" s="10">
         <v>26</v>
@@ -12946,11 +12946,11 @@
       <c r="BX44" t="n" s="10">
         <v>118.4</v>
       </c>
-      <c r="BY44" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ44" t="s" s="10">
-        <v>26</v>
+      <c r="BY44" t="n" s="10">
+        <v>119.5</v>
+      </c>
+      <c r="BZ44" t="n" s="10">
+        <v>123.3</v>
       </c>
       <c r="CA44" t="s" s="10">
         <v>26</v>
@@ -13206,11 +13206,11 @@
       <c r="BX45" t="n" s="10">
         <v>118.8</v>
       </c>
-      <c r="BY45" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ45" t="s" s="10">
-        <v>26</v>
+      <c r="BY45" t="n" s="10">
+        <v>119.0</v>
+      </c>
+      <c r="BZ45" t="n" s="10">
+        <v>118.5</v>
       </c>
       <c r="CA45" t="s" s="10">
         <v>26</v>
@@ -13466,11 +13466,11 @@
       <c r="BX46" t="n" s="10">
         <v>106.3</v>
       </c>
-      <c r="BY46" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ46" t="s" s="10">
-        <v>26</v>
+      <c r="BY46" t="n" s="10">
+        <v>106.5</v>
+      </c>
+      <c r="BZ46" t="n" s="10">
+        <v>106.6</v>
       </c>
       <c r="CA46" t="s" s="10">
         <v>26</v>
@@ -13726,11 +13726,11 @@
       <c r="BX47" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="BY47" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ47" t="s" s="10">
-        <v>26</v>
+      <c r="BY47" t="n" s="10">
+        <v>115.8</v>
+      </c>
+      <c r="BZ47" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CA47" t="s" s="10">
         <v>26</v>
@@ -13986,11 +13986,11 @@
       <c r="BX48" t="n" s="10">
         <v>117.2</v>
       </c>
-      <c r="BY48" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ48" t="s" s="10">
-        <v>26</v>
+      <c r="BY48" t="n" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="BZ48" t="n" s="10">
+        <v>120.7</v>
       </c>
       <c r="CA48" t="s" s="10">
         <v>26</v>
@@ -14246,11 +14246,11 @@
       <c r="BX49" t="n" s="10">
         <v>122.2</v>
       </c>
-      <c r="BY49" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ49" t="s" s="10">
-        <v>26</v>
+      <c r="BY49" t="n" s="10">
+        <v>124.4</v>
+      </c>
+      <c r="BZ49" t="n" s="10">
+        <v>130.5</v>
       </c>
       <c r="CA49" t="s" s="10">
         <v>26</v>
@@ -14506,11 +14506,11 @@
       <c r="BX50" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="BY50" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ50" t="s" s="10">
-        <v>26</v>
+      <c r="BY50" t="n" s="10">
+        <v>119.4</v>
+      </c>
+      <c r="BZ50" t="n" s="10">
+        <v>125.0</v>
       </c>
       <c r="CA50" t="s" s="10">
         <v>26</v>
@@ -14766,11 +14766,11 @@
       <c r="BX51" t="n" s="10">
         <v>114.4</v>
       </c>
-      <c r="BY51" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ51" t="s" s="10">
-        <v>26</v>
+      <c r="BY51" t="n" s="10">
+        <v>116.6</v>
+      </c>
+      <c r="BZ51" t="n" s="10">
+        <v>118.3</v>
       </c>
       <c r="CA51" t="s" s="10">
         <v>26</v>
@@ -15026,11 +15026,11 @@
       <c r="BX52" t="n" s="10">
         <v>117.3</v>
       </c>
-      <c r="BY52" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ52" t="s" s="10">
-        <v>26</v>
+      <c r="BY52" t="n" s="10">
+        <v>118.2</v>
+      </c>
+      <c r="BZ52" t="n" s="10">
+        <v>119.7</v>
       </c>
       <c r="CA52" t="s" s="10">
         <v>26</v>
@@ -15286,11 +15286,11 @@
       <c r="BX53" t="n" s="10">
         <v>122.8</v>
       </c>
-      <c r="BY53" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ53" t="s" s="10">
-        <v>26</v>
+      <c r="BY53" t="n" s="10">
+        <v>122.8</v>
+      </c>
+      <c r="BZ53" t="n" s="10">
+        <v>129.4</v>
       </c>
       <c r="CA53" t="s" s="10">
         <v>26</v>
@@ -15546,11 +15546,11 @@
       <c r="BX54" t="n" s="10">
         <v>124.9</v>
       </c>
-      <c r="BY54" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ54" t="s" s="10">
-        <v>26</v>
+      <c r="BY54" t="n" s="10">
+        <v>127.2</v>
+      </c>
+      <c r="BZ54" t="n" s="10">
+        <v>130.1</v>
       </c>
       <c r="CA54" t="s" s="10">
         <v>26</v>
@@ -15806,11 +15806,11 @@
       <c r="BX55" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BY55" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ55" t="s" s="10">
-        <v>26</v>
+      <c r="BY55" t="n" s="10">
+        <v>113.4</v>
+      </c>
+      <c r="BZ55" t="n" s="10">
+        <v>115.1</v>
       </c>
       <c r="CA55" t="s" s="10">
         <v>26</v>
@@ -16066,11 +16066,11 @@
       <c r="BX56" t="n" s="10">
         <v>118.3</v>
       </c>
-      <c r="BY56" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ56" t="s" s="10">
-        <v>26</v>
+      <c r="BY56" t="n" s="10">
+        <v>120.3</v>
+      </c>
+      <c r="BZ56" t="n" s="10">
+        <v>124.9</v>
       </c>
       <c r="CA56" t="s" s="10">
         <v>26</v>
@@ -16326,11 +16326,11 @@
       <c r="BX57" t="n" s="10">
         <v>175.3</v>
       </c>
-      <c r="BY57" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ57" t="s" s="10">
-        <v>26</v>
+      <c r="BY57" t="n" s="10">
+        <v>192.5</v>
+      </c>
+      <c r="BZ57" t="n" s="10">
+        <v>207.0</v>
       </c>
       <c r="CA57" t="s" s="10">
         <v>26</v>
@@ -16586,11 +16586,11 @@
       <c r="BX58" t="n" s="10">
         <v>143.4</v>
       </c>
-      <c r="BY58" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ58" t="s" s="10">
-        <v>26</v>
+      <c r="BY58" t="n" s="10">
+        <v>151.6</v>
+      </c>
+      <c r="BZ58" t="n" s="10">
+        <v>164.5</v>
       </c>
       <c r="CA58" t="s" s="10">
         <v>26</v>
@@ -16846,11 +16846,11 @@
       <c r="BX59" t="n" s="10">
         <v>170.2</v>
       </c>
-      <c r="BY59" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ59" t="s" s="10">
-        <v>26</v>
+      <c r="BY59" t="n" s="10">
+        <v>172.6</v>
+      </c>
+      <c r="BZ59" t="n" s="10">
+        <v>181.5</v>
       </c>
       <c r="CA59" t="s" s="10">
         <v>26</v>
@@ -17106,11 +17106,11 @@
       <c r="BX60" t="n" s="10">
         <v>146.9</v>
       </c>
-      <c r="BY60" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ60" t="s" s="10">
-        <v>26</v>
+      <c r="BY60" t="n" s="10">
+        <v>153.5</v>
+      </c>
+      <c r="BZ60" t="n" s="10">
+        <v>159.6</v>
       </c>
       <c r="CA60" t="s" s="10">
         <v>26</v>
@@ -17366,11 +17366,11 @@
       <c r="BX61" t="n" s="10">
         <v>116.3</v>
       </c>
-      <c r="BY61" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ61" t="s" s="10">
-        <v>26</v>
+      <c r="BY61" t="n" s="10">
+        <v>117.4</v>
+      </c>
+      <c r="BZ61" t="n" s="10">
+        <v>121.4</v>
       </c>
       <c r="CA61" t="s" s="10">
         <v>26</v>
@@ -17626,11 +17626,11 @@
       <c r="BX62" t="n" s="10">
         <v>132.9</v>
       </c>
-      <c r="BY62" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ62" t="s" s="10">
-        <v>26</v>
+      <c r="BY62" t="n" s="10">
+        <v>137.2</v>
+      </c>
+      <c r="BZ62" t="n" s="10">
+        <v>140.8</v>
       </c>
       <c r="CA62" t="s" s="10">
         <v>26</v>
@@ -17886,11 +17886,11 @@
       <c r="BX63" t="n" s="10">
         <v>127.2</v>
       </c>
-      <c r="BY63" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ63" t="s" s="10">
-        <v>26</v>
+      <c r="BY63" t="n" s="10">
+        <v>128.7</v>
+      </c>
+      <c r="BZ63" t="n" s="10">
+        <v>133.4</v>
       </c>
       <c r="CA63" t="s" s="10">
         <v>26</v>
@@ -18146,11 +18146,11 @@
       <c r="BX64" t="n" s="10">
         <v>121.1</v>
       </c>
-      <c r="BY64" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ64" t="s" s="10">
-        <v>26</v>
+      <c r="BY64" t="n" s="10">
+        <v>121.5</v>
+      </c>
+      <c r="BZ64" t="n" s="10">
+        <v>121.5</v>
       </c>
       <c r="CA64" t="s" s="10">
         <v>26</v>
@@ -18406,11 +18406,11 @@
       <c r="BX65" t="n" s="10">
         <v>119.8</v>
       </c>
-      <c r="BY65" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ65" t="s" s="10">
-        <v>26</v>
+      <c r="BY65" t="n" s="10">
+        <v>122.1</v>
+      </c>
+      <c r="BZ65" t="n" s="10">
+        <v>126.5</v>
       </c>
       <c r="CA65" t="s" s="10">
         <v>26</v>
@@ -18666,11 +18666,11 @@
       <c r="BX66" t="n" s="10">
         <v>115.8</v>
       </c>
-      <c r="BY66" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ66" t="s" s="10">
-        <v>26</v>
+      <c r="BY66" t="n" s="10">
+        <v>116.6</v>
+      </c>
+      <c r="BZ66" t="n" s="10">
+        <v>118.8</v>
       </c>
       <c r="CA66" t="s" s="10">
         <v>26</v>
@@ -18926,11 +18926,11 @@
       <c r="BX67" t="n" s="10">
         <v>111.7</v>
       </c>
-      <c r="BY67" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ67" t="s" s="10">
-        <v>26</v>
+      <c r="BY67" t="n" s="10">
+        <v>112.3</v>
+      </c>
+      <c r="BZ67" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="CA67" t="s" s="10">
         <v>26</v>
@@ -19186,11 +19186,11 @@
       <c r="BX68" t="n" s="10">
         <v>124.5</v>
       </c>
-      <c r="BY68" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ68" t="s" s="10">
-        <v>26</v>
+      <c r="BY68" t="n" s="10">
+        <v>127.1</v>
+      </c>
+      <c r="BZ68" t="n" s="10">
+        <v>131.7</v>
       </c>
       <c r="CA68" t="s" s="10">
         <v>26</v>
@@ -19446,11 +19446,11 @@
       <c r="BX69" t="n" s="10">
         <v>83.3</v>
       </c>
-      <c r="BY69" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ69" t="s" s="10">
-        <v>26</v>
+      <c r="BY69" t="n" s="10">
+        <v>84.0</v>
+      </c>
+      <c r="BZ69" t="n" s="10">
+        <v>84.1</v>
       </c>
       <c r="CA69" t="s" s="10">
         <v>26</v>
@@ -19706,11 +19706,11 @@
       <c r="BX70" t="n" s="10">
         <v>90.9</v>
       </c>
-      <c r="BY70" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ70" t="s" s="10">
-        <v>26</v>
+      <c r="BY70" t="n" s="10">
+        <v>91.6</v>
+      </c>
+      <c r="BZ70" t="n" s="10">
+        <v>91.9</v>
       </c>
       <c r="CA70" t="s" s="10">
         <v>26</v>
@@ -19966,11 +19966,11 @@
       <c r="BX71" t="n" s="10">
         <v>101.6</v>
       </c>
-      <c r="BY71" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ71" t="s" s="10">
-        <v>26</v>
+      <c r="BY71" t="n" s="10">
+        <v>101.7</v>
+      </c>
+      <c r="BZ71" t="n" s="10">
+        <v>102.1</v>
       </c>
       <c r="CA71" t="s" s="10">
         <v>26</v>
@@ -20226,11 +20226,11 @@
       <c r="BX72" t="n" s="10">
         <v>105.6</v>
       </c>
-      <c r="BY72" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ72" t="s" s="10">
-        <v>26</v>
+      <c r="BY72" t="n" s="10">
+        <v>105.8</v>
+      </c>
+      <c r="BZ72" t="n" s="10">
+        <v>107.4</v>
       </c>
       <c r="CA72" t="s" s="10">
         <v>26</v>
@@ -20486,11 +20486,11 @@
       <c r="BX73" t="n" s="10">
         <v>110.6</v>
       </c>
-      <c r="BY73" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ73" t="s" s="10">
-        <v>26</v>
+      <c r="BY73" t="n" s="10">
+        <v>110.9</v>
+      </c>
+      <c r="BZ73" t="n" s="10">
+        <v>111.7</v>
       </c>
       <c r="CA73" t="s" s="10">
         <v>26</v>
@@ -20746,11 +20746,11 @@
       <c r="BX74" t="n" s="10">
         <v>101.1</v>
       </c>
-      <c r="BY74" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ74" t="s" s="10">
-        <v>26</v>
+      <c r="BY74" t="n" s="10">
+        <v>101.1</v>
+      </c>
+      <c r="BZ74" t="n" s="10">
+        <v>101.2</v>
       </c>
       <c r="CA74" t="s" s="10">
         <v>26</v>
@@ -21006,11 +21006,11 @@
       <c r="BX75" t="n" s="10">
         <v>107.1</v>
       </c>
-      <c r="BY75" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ75" t="s" s="10">
-        <v>26</v>
+      <c r="BY75" t="n" s="10">
+        <v>107.1</v>
+      </c>
+      <c r="BZ75" t="n" s="10">
+        <v>107.5</v>
       </c>
       <c r="CA75" t="s" s="10">
         <v>26</v>
@@ -21266,11 +21266,11 @@
       <c r="BX76" t="n" s="10">
         <v>114.5</v>
       </c>
-      <c r="BY76" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ76" t="s" s="10">
-        <v>26</v>
+      <c r="BY76" t="n" s="10">
+        <v>115.3</v>
+      </c>
+      <c r="BZ76" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="CA76" t="s" s="10">
         <v>26</v>
@@ -21526,11 +21526,11 @@
       <c r="BX77" t="n" s="10">
         <v>111.0</v>
       </c>
-      <c r="BY77" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ77" t="s" s="10">
-        <v>26</v>
+      <c r="BY77" t="n" s="10">
+        <v>112.3</v>
+      </c>
+      <c r="BZ77" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="CA77" t="s" s="10">
         <v>26</v>
@@ -21786,11 +21786,11 @@
       <c r="BX78" t="n" s="10">
         <v>122.3</v>
       </c>
-      <c r="BY78" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ78" t="s" s="10">
-        <v>26</v>
+      <c r="BY78" t="n" s="10">
+        <v>124.7</v>
+      </c>
+      <c r="BZ78" t="n" s="10">
+        <v>127.5</v>
       </c>
       <c r="CA78" t="s" s="10">
         <v>26</v>
@@ -22046,11 +22046,11 @@
       <c r="BX79" t="n" s="10">
         <v>105.5</v>
       </c>
-      <c r="BY79" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ79" t="s" s="10">
-        <v>26</v>
+      <c r="BY79" t="n" s="10">
+        <v>106.1</v>
+      </c>
+      <c r="BZ79" t="n" s="10">
+        <v>106.9</v>
       </c>
       <c r="CA79" t="s" s="10">
         <v>26</v>
@@ -22306,11 +22306,11 @@
       <c r="BX80" t="n" s="10">
         <v>113.2</v>
       </c>
-      <c r="BY80" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ80" t="s" s="10">
-        <v>26</v>
+      <c r="BY80" t="n" s="10">
+        <v>113.5</v>
+      </c>
+      <c r="BZ80" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="CA80" t="s" s="10">
         <v>26</v>
@@ -22566,11 +22566,11 @@
       <c r="BX81" t="n" s="10">
         <v>109.1</v>
       </c>
-      <c r="BY81" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ81" t="s" s="10">
-        <v>26</v>
+      <c r="BY81" t="n" s="10">
+        <v>109.9</v>
+      </c>
+      <c r="BZ81" t="n" s="10">
+        <v>111.5</v>
       </c>
       <c r="CA81" t="s" s="10">
         <v>26</v>
@@ -22826,11 +22826,11 @@
       <c r="BX82" t="n" s="10">
         <v>112.2</v>
       </c>
-      <c r="BY82" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ82" t="s" s="10">
-        <v>26</v>
+      <c r="BY82" t="n" s="10">
+        <v>112.4</v>
+      </c>
+      <c r="BZ82" t="n" s="10">
+        <v>113.3</v>
       </c>
       <c r="CA82" t="s" s="10">
         <v>26</v>
@@ -23086,11 +23086,11 @@
       <c r="BX83" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="BY83" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ83" t="s" s="10">
-        <v>26</v>
+      <c r="BY83" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BZ83" t="n" s="10">
+        <v>117.2</v>
       </c>
       <c r="CA83" t="s" s="10">
         <v>26</v>
@@ -23346,11 +23346,11 @@
       <c r="BX84" t="n" s="10">
         <v>121.6</v>
       </c>
-      <c r="BY84" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ84" t="s" s="10">
-        <v>26</v>
+      <c r="BY84" t="n" s="10">
+        <v>121.7</v>
+      </c>
+      <c r="BZ84" t="n" s="10">
+        <v>123.4</v>
       </c>
       <c r="CA84" t="s" s="10">
         <v>26</v>
@@ -23606,11 +23606,11 @@
       <c r="BX85" t="n" s="10">
         <v>115.0</v>
       </c>
-      <c r="BY85" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ85" t="s" s="10">
-        <v>26</v>
+      <c r="BY85" t="n" s="10">
+        <v>115.2</v>
+      </c>
+      <c r="BZ85" t="n" s="10">
+        <v>117.1</v>
       </c>
       <c r="CA85" t="s" s="10">
         <v>26</v>
@@ -23866,11 +23866,11 @@
       <c r="BX86" t="n" s="10">
         <v>112.8</v>
       </c>
-      <c r="BY86" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ86" t="s" s="10">
-        <v>26</v>
+      <c r="BY86" t="n" s="10">
+        <v>113.2</v>
+      </c>
+      <c r="BZ86" t="n" s="10">
+        <v>114.7</v>
       </c>
       <c r="CA86" t="s" s="10">
         <v>26</v>
@@ -24126,11 +24126,11 @@
       <c r="BX87" t="n" s="10">
         <v>110.0</v>
       </c>
-      <c r="BY87" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ87" t="s" s="10">
-        <v>26</v>
+      <c r="BY87" t="n" s="10">
+        <v>110.2</v>
+      </c>
+      <c r="BZ87" t="n" s="10">
+        <v>111.1</v>
       </c>
       <c r="CA87" t="s" s="10">
         <v>26</v>
@@ -24386,11 +24386,11 @@
       <c r="BX88" t="n" s="10">
         <v>116.4</v>
       </c>
-      <c r="BY88" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ88" t="s" s="10">
-        <v>26</v>
+      <c r="BY88" t="n" s="10">
+        <v>116.8</v>
+      </c>
+      <c r="BZ88" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="CA88" t="s" s="10">
         <v>26</v>
@@ -24646,11 +24646,11 @@
       <c r="BX89" t="n" s="10">
         <v>105.2</v>
       </c>
-      <c r="BY89" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ89" t="s" s="10">
-        <v>26</v>
+      <c r="BY89" t="n" s="10">
+        <v>105.2</v>
+      </c>
+      <c r="BZ89" t="n" s="10">
+        <v>106.7</v>
       </c>
       <c r="CA89" t="s" s="10">
         <v>26</v>
@@ -24906,11 +24906,11 @@
       <c r="BX90" t="n" s="10">
         <v>107.7</v>
       </c>
-      <c r="BY90" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ90" t="s" s="10">
-        <v>26</v>
+      <c r="BY90" t="n" s="10">
+        <v>107.8</v>
+      </c>
+      <c r="BZ90" t="n" s="10">
+        <v>108.6</v>
       </c>
       <c r="CA90" t="s" s="10">
         <v>26</v>
@@ -25166,11 +25166,11 @@
       <c r="BX91" t="n" s="10">
         <v>113.3</v>
       </c>
-      <c r="BY91" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ91" t="s" s="10">
-        <v>26</v>
+      <c r="BY91" t="n" s="10">
+        <v>114.2</v>
+      </c>
+      <c r="BZ91" t="n" s="10">
+        <v>114.3</v>
       </c>
       <c r="CA91" t="s" s="10">
         <v>26</v>
@@ -25426,11 +25426,11 @@
       <c r="BX92" t="n" s="10">
         <v>118.2</v>
       </c>
-      <c r="BY92" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ92" t="s" s="10">
-        <v>26</v>
+      <c r="BY92" t="n" s="10">
+        <v>119.3</v>
+      </c>
+      <c r="BZ92" t="n" s="10">
+        <v>121.0</v>
       </c>
       <c r="CA92" t="s" s="10">
         <v>26</v>
@@ -25686,11 +25686,11 @@
       <c r="BX93" t="n" s="10">
         <v>130.7</v>
       </c>
-      <c r="BY93" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ93" t="s" s="10">
-        <v>26</v>
+      <c r="BY93" t="n" s="10">
+        <v>136.9</v>
+      </c>
+      <c r="BZ93" t="n" s="10">
+        <v>138.8</v>
       </c>
       <c r="CA93" t="s" s="10">
         <v>26</v>
@@ -25946,11 +25946,11 @@
       <c r="BX94" t="n" s="10">
         <v>126.3</v>
       </c>
-      <c r="BY94" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ94" t="s" s="10">
-        <v>26</v>
+      <c r="BY94" t="n" s="10">
+        <v>126.3</v>
+      </c>
+      <c r="BZ94" t="n" s="10">
+        <v>128.7</v>
       </c>
       <c r="CA94" t="s" s="10">
         <v>26</v>
@@ -26206,11 +26206,11 @@
       <c r="BX95" t="n" s="10">
         <v>119.6</v>
       </c>
-      <c r="BY95" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ95" t="s" s="10">
-        <v>26</v>
+      <c r="BY95" t="n" s="10">
+        <v>119.6</v>
+      </c>
+      <c r="BZ95" t="n" s="10">
+        <v>124.0</v>
       </c>
       <c r="CA95" t="s" s="10">
         <v>26</v>
@@ -26466,11 +26466,11 @@
       <c r="BX96" t="n" s="10">
         <v>111.9</v>
       </c>
-      <c r="BY96" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ96" t="s" s="10">
-        <v>26</v>
+      <c r="BY96" t="n" s="10">
+        <v>112.5</v>
+      </c>
+      <c r="BZ96" t="n" s="10">
+        <v>113.6</v>
       </c>
       <c r="CA96" t="s" s="10">
         <v>26</v>
@@ -26726,11 +26726,11 @@
       <c r="BX97" t="n" s="10">
         <v>110.1</v>
       </c>
-      <c r="BY97" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ97" t="s" s="10">
-        <v>26</v>
+      <c r="BY97" t="n" s="10">
+        <v>110.4</v>
+      </c>
+      <c r="BZ97" t="n" s="10">
+        <v>110.8</v>
       </c>
       <c r="CA97" t="s" s="10">
         <v>26</v>
@@ -26986,11 +26986,11 @@
       <c r="BX98" t="n" s="10">
         <v>114.6</v>
       </c>
-      <c r="BY98" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ98" t="s" s="10">
-        <v>26</v>
+      <c r="BY98" t="n" s="10">
+        <v>115.8</v>
+      </c>
+      <c r="BZ98" t="n" s="10">
+        <v>117.0</v>
       </c>
       <c r="CA98" t="s" s="10">
         <v>26</v>
@@ -27246,11 +27246,11 @@
       <c r="BX99" t="n" s="10">
         <v>118.1</v>
       </c>
-      <c r="BY99" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ99" t="s" s="10">
-        <v>26</v>
+      <c r="BY99" t="n" s="10">
+        <v>118.5</v>
+      </c>
+      <c r="BZ99" t="n" s="10">
+        <v>118.7</v>
       </c>
       <c r="CA99" t="s" s="10">
         <v>26</v>
@@ -27506,11 +27506,11 @@
       <c r="BX100" t="n" s="10">
         <v>117.7</v>
       </c>
-      <c r="BY100" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ100" t="s" s="10">
-        <v>26</v>
+      <c r="BY100" t="n" s="10">
+        <v>117.7</v>
+      </c>
+      <c r="BZ100" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CA100" t="s" s="10">
         <v>26</v>
@@ -27766,11 +27766,11 @@
       <c r="BX101" t="n" s="10">
         <v>194.8</v>
       </c>
-      <c r="BY101" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ101" t="s" s="10">
-        <v>26</v>
+      <c r="BY101" t="n" s="10">
+        <v>214.5</v>
+      </c>
+      <c r="BZ101" t="n" s="10">
+        <v>218.9</v>
       </c>
       <c r="CA101" t="s" s="10">
         <v>26</v>
@@ -28026,11 +28026,11 @@
       <c r="BX102" t="n" s="10">
         <v>191.6</v>
       </c>
-      <c r="BY102" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ102" t="s" s="10">
-        <v>26</v>
+      <c r="BY102" t="n" s="10">
+        <v>207.8</v>
+      </c>
+      <c r="BZ102" t="n" s="10">
+        <v>217.6</v>
       </c>
       <c r="CA102" t="s" s="10">
         <v>26</v>
@@ -28286,11 +28286,11 @@
       <c r="BX103" t="n" s="10">
         <v>110.4</v>
       </c>
-      <c r="BY103" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ103" t="s" s="10">
-        <v>26</v>
+      <c r="BY103" t="n" s="10">
+        <v>111.7</v>
+      </c>
+      <c r="BZ103" t="n" s="10">
+        <v>119.0</v>
       </c>
       <c r="CA103" t="s" s="10">
         <v>26</v>
@@ -28546,11 +28546,11 @@
       <c r="BX104" t="n" s="10">
         <v>112.5</v>
       </c>
-      <c r="BY104" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ104" t="s" s="10">
-        <v>26</v>
+      <c r="BY104" t="n" s="10">
+        <v>112.6</v>
+      </c>
+      <c r="BZ104" t="n" s="10">
+        <v>112.7</v>
       </c>
       <c r="CA104" t="s" s="10">
         <v>26</v>
@@ -28806,11 +28806,11 @@
       <c r="BX105" t="n" s="10">
         <v>195.0</v>
       </c>
-      <c r="BY105" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="BZ105" t="s" s="10">
-        <v>26</v>
+      <c r="BY105" t="n" s="10">
+        <v>219.3</v>
+      </c>
+      <c r="BZ105" t="n" s="10">
+        <v>236.8</v>
       </c>
       <c r="CA105" t="s" s="10">
         <v>26</v>
@@ -28864,7 +28864,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 03:58:37&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:37:21&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP3 codes - 2016.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/Producer price index for industrial products - GP3 codes - 2016.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="989" uniqueCount="225">
   <si>
     <t>Producer price index for industrial products: Germany,
 months, product classification (GP2009 2-/3-/4-/5-/6-/
@@ -688,7 +688,7 @@
     <t>______________</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:37:15</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 06:48:30</t>
   </si>
 </sst>
 </file>
@@ -3332,8 +3332,8 @@
       <c r="BZ7" t="n" s="10">
         <v>109.2</v>
       </c>
-      <c r="CA7" t="s" s="10">
-        <v>26</v>
+      <c r="CA7" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="CB7" t="s" s="10">
         <v>26</v>
@@ -3592,8 +3592,8 @@
       <c r="BZ8" t="n" s="10">
         <v>211.6</v>
       </c>
-      <c r="CA8" t="s" s="10">
-        <v>26</v>
+      <c r="CA8" t="n" s="10">
+        <v>199.4</v>
       </c>
       <c r="CB8" t="s" s="10">
         <v>26</v>
@@ -3852,8 +3852,8 @@
       <c r="BZ9" t="n" s="10">
         <v>358.6</v>
       </c>
-      <c r="CA9" t="s" s="10">
-        <v>26</v>
+      <c r="CA9" t="n" s="10">
+        <v>303.5</v>
       </c>
       <c r="CB9" t="s" s="10">
         <v>26</v>
@@ -4112,8 +4112,8 @@
       <c r="BZ10" t="n" s="10">
         <v>131.4</v>
       </c>
-      <c r="CA10" t="s" s="10">
-        <v>26</v>
+      <c r="CA10" t="n" s="10">
+        <v>135.0</v>
       </c>
       <c r="CB10" t="s" s="10">
         <v>26</v>
@@ -4372,8 +4372,8 @@
       <c r="BZ11" t="n" s="10">
         <v>102.2</v>
       </c>
-      <c r="CA11" t="s" s="10">
-        <v>26</v>
+      <c r="CA11" t="n" s="10">
+        <v>102.3</v>
       </c>
       <c r="CB11" t="s" s="10">
         <v>26</v>
@@ -4632,8 +4632,8 @@
       <c r="BZ12" t="n" s="10">
         <v>136.2</v>
       </c>
-      <c r="CA12" t="s" s="10">
-        <v>26</v>
+      <c r="CA12" t="n" s="10">
+        <v>137.1</v>
       </c>
       <c r="CB12" t="s" s="10">
         <v>26</v>
@@ -4892,8 +4892,8 @@
       <c r="BZ13" t="n" s="10">
         <v>120.5</v>
       </c>
-      <c r="CA13" t="s" s="10">
-        <v>26</v>
+      <c r="CA13" t="n" s="10">
+        <v>123.3</v>
       </c>
       <c r="CB13" t="s" s="10">
         <v>26</v>
@@ -5152,8 +5152,8 @@
       <c r="BZ14" t="n" s="10">
         <v>116.9</v>
       </c>
-      <c r="CA14" t="s" s="10">
-        <v>26</v>
+      <c r="CA14" t="n" s="10">
+        <v>117.2</v>
       </c>
       <c r="CB14" t="s" s="10">
         <v>26</v>
@@ -5412,8 +5412,8 @@
       <c r="BZ15" t="n" s="10">
         <v>198.8</v>
       </c>
-      <c r="CA15" t="s" s="10">
-        <v>26</v>
+      <c r="CA15" t="n" s="10">
+        <v>205.5</v>
       </c>
       <c r="CB15" t="s" s="10">
         <v>26</v>
@@ -5672,8 +5672,8 @@
       <c r="BZ16" t="n" s="10">
         <v>133.8</v>
       </c>
-      <c r="CA16" t="s" s="10">
-        <v>26</v>
+      <c r="CA16" t="n" s="10">
+        <v>138.4</v>
       </c>
       <c r="CB16" t="s" s="10">
         <v>26</v>
@@ -5932,8 +5932,8 @@
       <c r="BZ17" t="n" s="10">
         <v>137.0</v>
       </c>
-      <c r="CA17" t="s" s="10">
-        <v>26</v>
+      <c r="CA17" t="n" s="10">
+        <v>140.8</v>
       </c>
       <c r="CB17" t="s" s="10">
         <v>26</v>
@@ -6192,8 +6192,8 @@
       <c r="BZ18" t="n" s="10">
         <v>123.4</v>
       </c>
-      <c r="CA18" t="s" s="10">
-        <v>26</v>
+      <c r="CA18" t="n" s="10">
+        <v>125.4</v>
       </c>
       <c r="CB18" t="s" s="10">
         <v>26</v>
@@ -6452,8 +6452,8 @@
       <c r="BZ19" t="n" s="10">
         <v>111.5</v>
       </c>
-      <c r="CA19" t="s" s="10">
-        <v>26</v>
+      <c r="CA19" t="n" s="10">
+        <v>112.7</v>
       </c>
       <c r="CB19" t="s" s="10">
         <v>26</v>
@@ -6712,8 +6712,8 @@
       <c r="BZ20" t="n" s="10">
         <v>163.3</v>
       </c>
-      <c r="CA20" t="s" s="10">
-        <v>26</v>
+      <c r="CA20" t="n" s="10">
+        <v>166.7</v>
       </c>
       <c r="CB20" t="s" s="10">
         <v>26</v>
@@ -6972,8 +6972,8 @@
       <c r="BZ21" t="n" s="10">
         <v>114.2</v>
       </c>
-      <c r="CA21" t="s" s="10">
-        <v>26</v>
+      <c r="CA21" t="n" s="10">
+        <v>115.0</v>
       </c>
       <c r="CB21" t="s" s="10">
         <v>26</v>
@@ -7232,8 +7232,8 @@
       <c r="BZ22" t="n" s="10">
         <v>119.6</v>
       </c>
-      <c r="CA22" t="s" s="10">
-        <v>26</v>
+      <c r="CA22" t="n" s="10">
+        <v>119.6</v>
       </c>
       <c r="CB22" t="s" s="10">
         <v>26</v>
@@ -7492,8 +7492,8 @@
       <c r="BZ23" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="CA23" t="s" s="10">
-        <v>26</v>
+      <c r="CA23" t="n" s="10">
+        <v>120.4</v>
       </c>
       <c r="CB23" t="s" s="10">
         <v>26</v>
@@ -7752,8 +7752,8 @@
       <c r="BZ24" t="n" s="10">
         <v>111.8</v>
       </c>
-      <c r="CA24" t="s" s="10">
-        <v>26</v>
+      <c r="CA24" t="n" s="10">
+        <v>112.8</v>
       </c>
       <c r="CB24" t="s" s="10">
         <v>26</v>
@@ -8012,8 +8012,8 @@
       <c r="BZ25" t="n" s="10">
         <v>112.8</v>
       </c>
-      <c r="CA25" t="s" s="10">
-        <v>26</v>
+      <c r="CA25" t="n" s="10">
+        <v>114.9</v>
       </c>
       <c r="CB25" t="s" s="10">
         <v>26</v>
@@ -8272,8 +8272,8 @@
       <c r="BZ26" t="n" s="10">
         <v>115.4</v>
       </c>
-      <c r="CA26" t="s" s="10">
-        <v>26</v>
+      <c r="CA26" t="n" s="10">
+        <v>116.6</v>
       </c>
       <c r="CB26" t="s" s="10">
         <v>26</v>
@@ -8532,8 +8532,8 @@
       <c r="BZ27" t="n" s="10">
         <v>108.0</v>
       </c>
-      <c r="CA27" t="s" s="10">
-        <v>26</v>
+      <c r="CA27" t="n" s="10">
+        <v>108.2</v>
       </c>
       <c r="CB27" t="s" s="10">
         <v>26</v>
@@ -8792,8 +8792,8 @@
       <c r="BZ28" t="n" s="10">
         <v>107.9</v>
       </c>
-      <c r="CA28" t="s" s="10">
-        <v>26</v>
+      <c r="CA28" t="n" s="10">
+        <v>107.9</v>
       </c>
       <c r="CB28" t="s" s="10">
         <v>26</v>
@@ -9052,8 +9052,8 @@
       <c r="BZ29" t="n" s="10">
         <v>104.7</v>
       </c>
-      <c r="CA29" t="s" s="10">
-        <v>26</v>
+      <c r="CA29" t="n" s="10">
+        <v>104.8</v>
       </c>
       <c r="CB29" t="s" s="10">
         <v>26</v>
@@ -9312,8 +9312,8 @@
       <c r="BZ30" t="n" s="10">
         <v>112.1</v>
       </c>
-      <c r="CA30" t="s" s="10">
-        <v>26</v>
+      <c r="CA30" t="n" s="10">
+        <v>112.1</v>
       </c>
       <c r="CB30" t="s" s="10">
         <v>26</v>
@@ -9572,8 +9572,8 @@
       <c r="BZ31" t="n" s="10">
         <v>181.8</v>
       </c>
-      <c r="CA31" t="s" s="10">
-        <v>26</v>
+      <c r="CA31" t="n" s="10">
+        <v>191.3</v>
       </c>
       <c r="CB31" t="s" s="10">
         <v>26</v>
@@ -9832,8 +9832,8 @@
       <c r="BZ32" t="n" s="10">
         <v>150.7</v>
       </c>
-      <c r="CA32" t="s" s="10">
-        <v>26</v>
+      <c r="CA32" t="n" s="10">
+        <v>156.5</v>
       </c>
       <c r="CB32" t="s" s="10">
         <v>26</v>
@@ -10092,8 +10092,8 @@
       <c r="BZ33" t="n" s="10">
         <v>157.8</v>
       </c>
-      <c r="CA33" t="s" s="10">
-        <v>26</v>
+      <c r="CA33" t="n" s="10">
+        <v>161.7</v>
       </c>
       <c r="CB33" t="s" s="10">
         <v>26</v>
@@ -10352,8 +10352,8 @@
       <c r="BZ34" t="n" s="10">
         <v>128.4</v>
       </c>
-      <c r="CA34" t="s" s="10">
-        <v>26</v>
+      <c r="CA34" t="n" s="10">
+        <v>132.3</v>
       </c>
       <c r="CB34" t="s" s="10">
         <v>26</v>
@@ -10612,8 +10612,8 @@
       <c r="BZ35" t="n" s="10">
         <v>116.0</v>
       </c>
-      <c r="CA35" t="s" s="10">
-        <v>26</v>
+      <c r="CA35" t="n" s="10">
+        <v>118.4</v>
       </c>
       <c r="CB35" t="s" s="10">
         <v>26</v>
@@ -10872,8 +10872,8 @@
       <c r="BZ36" t="n" s="10">
         <v>124.1</v>
       </c>
-      <c r="CA36" t="s" s="10">
-        <v>26</v>
+      <c r="CA36" t="n" s="10">
+        <v>124.1</v>
       </c>
       <c r="CB36" t="s" s="10">
         <v>26</v>
@@ -11132,8 +11132,8 @@
       <c r="BZ37" t="n" s="10">
         <v>180.5</v>
       </c>
-      <c r="CA37" t="s" s="10">
-        <v>26</v>
+      <c r="CA37" t="n" s="10">
+        <v>197.1</v>
       </c>
       <c r="CB37" t="s" s="10">
         <v>26</v>
@@ -11392,8 +11392,8 @@
       <c r="BZ38" t="n" s="10">
         <v>170.2</v>
       </c>
-      <c r="CA38" t="s" s="10">
-        <v>26</v>
+      <c r="CA38" t="n" s="10">
+        <v>174.5</v>
       </c>
       <c r="CB38" t="s" s="10">
         <v>26</v>
@@ -11652,8 +11652,8 @@
       <c r="BZ39" t="n" s="10">
         <v>148.1</v>
       </c>
-      <c r="CA39" t="s" s="10">
-        <v>26</v>
+      <c r="CA39" t="n" s="10">
+        <v>152.6</v>
       </c>
       <c r="CB39" t="s" s="10">
         <v>26</v>
@@ -11912,8 +11912,8 @@
       <c r="BZ40" t="n" s="10">
         <v>119.1</v>
       </c>
-      <c r="CA40" t="s" s="10">
-        <v>26</v>
+      <c r="CA40" t="n" s="10">
+        <v>120.6</v>
       </c>
       <c r="CB40" t="s" s="10">
         <v>26</v>
@@ -12172,8 +12172,8 @@
       <c r="BZ41" t="n" s="10">
         <v>122.8</v>
       </c>
-      <c r="CA41" t="s" s="10">
-        <v>26</v>
+      <c r="CA41" t="n" s="10">
+        <v>123.9</v>
       </c>
       <c r="CB41" t="s" s="10">
         <v>26</v>
@@ -12432,8 +12432,8 @@
       <c r="BZ42" t="n" s="10">
         <v>117.6</v>
       </c>
-      <c r="CA42" t="s" s="10">
-        <v>26</v>
+      <c r="CA42" t="n" s="10">
+        <v>120.1</v>
       </c>
       <c r="CB42" t="s" s="10">
         <v>26</v>
@@ -12692,8 +12692,8 @@
       <c r="BZ43" t="n" s="10">
         <v>150.2</v>
       </c>
-      <c r="CA43" t="s" s="10">
-        <v>26</v>
+      <c r="CA43" t="n" s="10">
+        <v>154.1</v>
       </c>
       <c r="CB43" t="s" s="10">
         <v>26</v>
@@ -12952,8 +12952,8 @@
       <c r="BZ44" t="n" s="10">
         <v>123.3</v>
       </c>
-      <c r="CA44" t="s" s="10">
-        <v>26</v>
+      <c r="CA44" t="n" s="10">
+        <v>126.9</v>
       </c>
       <c r="CB44" t="s" s="10">
         <v>26</v>
@@ -13212,8 +13212,8 @@
       <c r="BZ45" t="n" s="10">
         <v>118.5</v>
       </c>
-      <c r="CA45" t="s" s="10">
-        <v>26</v>
+      <c r="CA45" t="n" s="10">
+        <v>118.6</v>
       </c>
       <c r="CB45" t="s" s="10">
         <v>26</v>
@@ -13472,8 +13472,8 @@
       <c r="BZ46" t="n" s="10">
         <v>106.6</v>
       </c>
-      <c r="CA46" t="s" s="10">
-        <v>26</v>
+      <c r="CA46" t="n" s="10">
+        <v>106.8</v>
       </c>
       <c r="CB46" t="s" s="10">
         <v>26</v>
@@ -13732,8 +13732,8 @@
       <c r="BZ47" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="CA47" t="s" s="10">
-        <v>26</v>
+      <c r="CA47" t="n" s="10">
+        <v>121.7</v>
       </c>
       <c r="CB47" t="s" s="10">
         <v>26</v>
@@ -13992,8 +13992,8 @@
       <c r="BZ48" t="n" s="10">
         <v>120.7</v>
       </c>
-      <c r="CA48" t="s" s="10">
-        <v>26</v>
+      <c r="CA48" t="n" s="10">
+        <v>122.9</v>
       </c>
       <c r="CB48" t="s" s="10">
         <v>26</v>
@@ -14252,8 +14252,8 @@
       <c r="BZ49" t="n" s="10">
         <v>130.5</v>
       </c>
-      <c r="CA49" t="s" s="10">
-        <v>26</v>
+      <c r="CA49" t="n" s="10">
+        <v>132.6</v>
       </c>
       <c r="CB49" t="s" s="10">
         <v>26</v>
@@ -14512,8 +14512,8 @@
       <c r="BZ50" t="n" s="10">
         <v>125.0</v>
       </c>
-      <c r="CA50" t="s" s="10">
-        <v>26</v>
+      <c r="CA50" t="n" s="10">
+        <v>126.3</v>
       </c>
       <c r="CB50" t="s" s="10">
         <v>26</v>
@@ -14772,8 +14772,8 @@
       <c r="BZ51" t="n" s="10">
         <v>118.3</v>
       </c>
-      <c r="CA51" t="s" s="10">
-        <v>26</v>
+      <c r="CA51" t="n" s="10">
+        <v>122.0</v>
       </c>
       <c r="CB51" t="s" s="10">
         <v>26</v>
@@ -15032,8 +15032,8 @@
       <c r="BZ52" t="n" s="10">
         <v>119.7</v>
       </c>
-      <c r="CA52" t="s" s="10">
-        <v>26</v>
+      <c r="CA52" t="n" s="10">
+        <v>121.6</v>
       </c>
       <c r="CB52" t="s" s="10">
         <v>26</v>
@@ -15292,8 +15292,8 @@
       <c r="BZ53" t="n" s="10">
         <v>129.4</v>
       </c>
-      <c r="CA53" t="s" s="10">
-        <v>26</v>
+      <c r="CA53" t="n" s="10">
+        <v>135.1</v>
       </c>
       <c r="CB53" t="s" s="10">
         <v>26</v>
@@ -15552,8 +15552,8 @@
       <c r="BZ54" t="n" s="10">
         <v>130.1</v>
       </c>
-      <c r="CA54" t="s" s="10">
-        <v>26</v>
+      <c r="CA54" t="n" s="10">
+        <v>132.7</v>
       </c>
       <c r="CB54" t="s" s="10">
         <v>26</v>
@@ -15812,8 +15812,8 @@
       <c r="BZ55" t="n" s="10">
         <v>115.1</v>
       </c>
-      <c r="CA55" t="s" s="10">
-        <v>26</v>
+      <c r="CA55" t="n" s="10">
+        <v>114.8</v>
       </c>
       <c r="CB55" t="s" s="10">
         <v>26</v>
@@ -16072,8 +16072,8 @@
       <c r="BZ56" t="n" s="10">
         <v>124.9</v>
       </c>
-      <c r="CA56" t="s" s="10">
-        <v>26</v>
+      <c r="CA56" t="n" s="10">
+        <v>130.5</v>
       </c>
       <c r="CB56" t="s" s="10">
         <v>26</v>
@@ -16332,8 +16332,8 @@
       <c r="BZ57" t="n" s="10">
         <v>207.0</v>
       </c>
-      <c r="CA57" t="s" s="10">
-        <v>26</v>
+      <c r="CA57" t="n" s="10">
+        <v>210.9</v>
       </c>
       <c r="CB57" t="s" s="10">
         <v>26</v>
@@ -16592,8 +16592,8 @@
       <c r="BZ58" t="n" s="10">
         <v>164.5</v>
       </c>
-      <c r="CA58" t="s" s="10">
-        <v>26</v>
+      <c r="CA58" t="n" s="10">
+        <v>171.1</v>
       </c>
       <c r="CB58" t="s" s="10">
         <v>26</v>
@@ -16852,8 +16852,8 @@
       <c r="BZ59" t="n" s="10">
         <v>181.5</v>
       </c>
-      <c r="CA59" t="s" s="10">
-        <v>26</v>
+      <c r="CA59" t="n" s="10">
+        <v>185.7</v>
       </c>
       <c r="CB59" t="s" s="10">
         <v>26</v>
@@ -17112,8 +17112,8 @@
       <c r="BZ60" t="n" s="10">
         <v>159.6</v>
       </c>
-      <c r="CA60" t="s" s="10">
-        <v>26</v>
+      <c r="CA60" t="n" s="10">
+        <v>156.4</v>
       </c>
       <c r="CB60" t="s" s="10">
         <v>26</v>
@@ -17372,8 +17372,8 @@
       <c r="BZ61" t="n" s="10">
         <v>121.4</v>
       </c>
-      <c r="CA61" t="s" s="10">
-        <v>26</v>
+      <c r="CA61" t="n" s="10">
+        <v>123.2</v>
       </c>
       <c r="CB61" t="s" s="10">
         <v>26</v>
@@ -17632,8 +17632,8 @@
       <c r="BZ62" t="n" s="10">
         <v>140.8</v>
       </c>
-      <c r="CA62" t="s" s="10">
-        <v>26</v>
+      <c r="CA62" t="n" s="10">
+        <v>143.0</v>
       </c>
       <c r="CB62" t="s" s="10">
         <v>26</v>
@@ -17892,8 +17892,8 @@
       <c r="BZ63" t="n" s="10">
         <v>133.4</v>
       </c>
-      <c r="CA63" t="s" s="10">
-        <v>26</v>
+      <c r="CA63" t="n" s="10">
+        <v>136.1</v>
       </c>
       <c r="CB63" t="s" s="10">
         <v>26</v>
@@ -18152,8 +18152,8 @@
       <c r="BZ64" t="n" s="10">
         <v>121.5</v>
       </c>
-      <c r="CA64" t="s" s="10">
-        <v>26</v>
+      <c r="CA64" t="n" s="10">
+        <v>124.9</v>
       </c>
       <c r="CB64" t="s" s="10">
         <v>26</v>
@@ -18412,8 +18412,8 @@
       <c r="BZ65" t="n" s="10">
         <v>126.5</v>
       </c>
-      <c r="CA65" t="s" s="10">
-        <v>26</v>
+      <c r="CA65" t="n" s="10">
+        <v>128.6</v>
       </c>
       <c r="CB65" t="s" s="10">
         <v>26</v>
@@ -18672,8 +18672,8 @@
       <c r="BZ66" t="n" s="10">
         <v>118.8</v>
       </c>
-      <c r="CA66" t="s" s="10">
-        <v>26</v>
+      <c r="CA66" t="n" s="10">
+        <v>119.7</v>
       </c>
       <c r="CB66" t="s" s="10">
         <v>26</v>
@@ -18932,8 +18932,8 @@
       <c r="BZ67" t="n" s="10">
         <v>113.0</v>
       </c>
-      <c r="CA67" t="s" s="10">
-        <v>26</v>
+      <c r="CA67" t="n" s="10">
+        <v>114.2</v>
       </c>
       <c r="CB67" t="s" s="10">
         <v>26</v>
@@ -19192,8 +19192,8 @@
       <c r="BZ68" t="n" s="10">
         <v>131.7</v>
       </c>
-      <c r="CA68" t="s" s="10">
-        <v>26</v>
+      <c r="CA68" t="n" s="10">
+        <v>134.4</v>
       </c>
       <c r="CB68" t="s" s="10">
         <v>26</v>
@@ -19452,8 +19452,8 @@
       <c r="BZ69" t="n" s="10">
         <v>84.1</v>
       </c>
-      <c r="CA69" t="s" s="10">
-        <v>26</v>
+      <c r="CA69" t="n" s="10">
+        <v>84.8</v>
       </c>
       <c r="CB69" t="s" s="10">
         <v>26</v>
@@ -19712,8 +19712,8 @@
       <c r="BZ70" t="n" s="10">
         <v>91.9</v>
       </c>
-      <c r="CA70" t="s" s="10">
-        <v>26</v>
+      <c r="CA70" t="n" s="10">
+        <v>92.6</v>
       </c>
       <c r="CB70" t="s" s="10">
         <v>26</v>
@@ -19972,8 +19972,8 @@
       <c r="BZ71" t="n" s="10">
         <v>102.1</v>
       </c>
-      <c r="CA71" t="s" s="10">
-        <v>26</v>
+      <c r="CA71" t="n" s="10">
+        <v>102.3</v>
       </c>
       <c r="CB71" t="s" s="10">
         <v>26</v>
@@ -20232,8 +20232,8 @@
       <c r="BZ72" t="n" s="10">
         <v>107.4</v>
       </c>
-      <c r="CA72" t="s" s="10">
-        <v>26</v>
+      <c r="CA72" t="n" s="10">
+        <v>107.5</v>
       </c>
       <c r="CB72" t="s" s="10">
         <v>26</v>
@@ -20492,8 +20492,8 @@
       <c r="BZ73" t="n" s="10">
         <v>111.7</v>
       </c>
-      <c r="CA73" t="s" s="10">
-        <v>26</v>
+      <c r="CA73" t="n" s="10">
+        <v>112.4</v>
       </c>
       <c r="CB73" t="s" s="10">
         <v>26</v>
@@ -20752,8 +20752,8 @@
       <c r="BZ74" t="n" s="10">
         <v>101.2</v>
       </c>
-      <c r="CA74" t="s" s="10">
-        <v>26</v>
+      <c r="CA74" t="n" s="10">
+        <v>101.2</v>
       </c>
       <c r="CB74" t="s" s="10">
         <v>26</v>
@@ -21012,8 +21012,8 @@
       <c r="BZ75" t="n" s="10">
         <v>107.5</v>
       </c>
-      <c r="CA75" t="s" s="10">
-        <v>26</v>
+      <c r="CA75" t="n" s="10">
+        <v>108.0</v>
       </c>
       <c r="CB75" t="s" s="10">
         <v>26</v>
@@ -21272,8 +21272,8 @@
       <c r="BZ76" t="n" s="10">
         <v>116.6</v>
       </c>
-      <c r="CA76" t="s" s="10">
-        <v>26</v>
+      <c r="CA76" t="n" s="10">
+        <v>118.0</v>
       </c>
       <c r="CB76" t="s" s="10">
         <v>26</v>
@@ -21532,8 +21532,8 @@
       <c r="BZ77" t="n" s="10">
         <v>114.2</v>
       </c>
-      <c r="CA77" t="s" s="10">
-        <v>26</v>
+      <c r="CA77" t="n" s="10">
+        <v>115.5</v>
       </c>
       <c r="CB77" t="s" s="10">
         <v>26</v>
@@ -21792,8 +21792,8 @@
       <c r="BZ78" t="n" s="10">
         <v>127.5</v>
       </c>
-      <c r="CA78" t="s" s="10">
-        <v>26</v>
+      <c r="CA78" t="n" s="10">
+        <v>128.4</v>
       </c>
       <c r="CB78" t="s" s="10">
         <v>26</v>
@@ -22052,8 +22052,8 @@
       <c r="BZ79" t="n" s="10">
         <v>106.9</v>
       </c>
-      <c r="CA79" t="s" s="10">
-        <v>26</v>
+      <c r="CA79" t="n" s="10">
+        <v>107.4</v>
       </c>
       <c r="CB79" t="s" s="10">
         <v>26</v>
@@ -22312,8 +22312,8 @@
       <c r="BZ80" t="n" s="10">
         <v>115.7</v>
       </c>
-      <c r="CA80" t="s" s="10">
-        <v>26</v>
+      <c r="CA80" t="n" s="10">
+        <v>116.5</v>
       </c>
       <c r="CB80" t="s" s="10">
         <v>26</v>
@@ -22572,8 +22572,8 @@
       <c r="BZ81" t="n" s="10">
         <v>111.5</v>
       </c>
-      <c r="CA81" t="s" s="10">
-        <v>26</v>
+      <c r="CA81" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="CB81" t="s" s="10">
         <v>26</v>
@@ -22832,8 +22832,8 @@
       <c r="BZ82" t="n" s="10">
         <v>113.3</v>
       </c>
-      <c r="CA82" t="s" s="10">
-        <v>26</v>
+      <c r="CA82" t="n" s="10">
+        <v>114.1</v>
       </c>
       <c r="CB82" t="s" s="10">
         <v>26</v>
@@ -23092,8 +23092,8 @@
       <c r="BZ83" t="n" s="10">
         <v>117.2</v>
       </c>
-      <c r="CA83" t="s" s="10">
-        <v>26</v>
+      <c r="CA83" t="n" s="10">
+        <v>118.5</v>
       </c>
       <c r="CB83" t="s" s="10">
         <v>26</v>
@@ -23352,8 +23352,8 @@
       <c r="BZ84" t="n" s="10">
         <v>123.4</v>
       </c>
-      <c r="CA84" t="s" s="10">
-        <v>26</v>
+      <c r="CA84" t="n" s="10">
+        <v>124.9</v>
       </c>
       <c r="CB84" t="s" s="10">
         <v>26</v>
@@ -23612,8 +23612,8 @@
       <c r="BZ85" t="n" s="10">
         <v>117.1</v>
       </c>
-      <c r="CA85" t="s" s="10">
-        <v>26</v>
+      <c r="CA85" t="n" s="10">
+        <v>117.8</v>
       </c>
       <c r="CB85" t="s" s="10">
         <v>26</v>
@@ -23872,8 +23872,8 @@
       <c r="BZ86" t="n" s="10">
         <v>114.7</v>
       </c>
-      <c r="CA86" t="s" s="10">
-        <v>26</v>
+      <c r="CA86" t="n" s="10">
+        <v>115.7</v>
       </c>
       <c r="CB86" t="s" s="10">
         <v>26</v>
@@ -24132,8 +24132,8 @@
       <c r="BZ87" t="n" s="10">
         <v>111.1</v>
       </c>
-      <c r="CA87" t="s" s="10">
-        <v>26</v>
+      <c r="CA87" t="n" s="10">
+        <v>111.3</v>
       </c>
       <c r="CB87" t="s" s="10">
         <v>26</v>
@@ -24392,8 +24392,8 @@
       <c r="BZ88" t="n" s="10">
         <v>119.1</v>
       </c>
-      <c r="CA88" t="s" s="10">
-        <v>26</v>
+      <c r="CA88" t="n" s="10">
+        <v>119.8</v>
       </c>
       <c r="CB88" t="s" s="10">
         <v>26</v>
@@ -24652,8 +24652,8 @@
       <c r="BZ89" t="n" s="10">
         <v>106.7</v>
       </c>
-      <c r="CA89" t="s" s="10">
-        <v>26</v>
+      <c r="CA89" t="n" s="10">
+        <v>106.7</v>
       </c>
       <c r="CB89" t="s" s="10">
         <v>26</v>
@@ -24912,8 +24912,8 @@
       <c r="BZ90" t="n" s="10">
         <v>108.6</v>
       </c>
-      <c r="CA90" t="s" s="10">
-        <v>26</v>
+      <c r="CA90" t="n" s="10">
+        <v>108.7</v>
       </c>
       <c r="CB90" t="s" s="10">
         <v>26</v>
@@ -25172,8 +25172,8 @@
       <c r="BZ91" t="n" s="10">
         <v>114.3</v>
       </c>
-      <c r="CA91" t="s" s="10">
-        <v>26</v>
+      <c r="CA91" t="n" s="10">
+        <v>115.2</v>
       </c>
       <c r="CB91" t="s" s="10">
         <v>26</v>
@@ -25432,8 +25432,8 @@
       <c r="BZ92" t="n" s="10">
         <v>121.0</v>
       </c>
-      <c r="CA92" t="s" s="10">
-        <v>26</v>
+      <c r="CA92" t="n" s="10">
+        <v>122.7</v>
       </c>
       <c r="CB92" t="s" s="10">
         <v>26</v>
@@ -25692,8 +25692,8 @@
       <c r="BZ93" t="n" s="10">
         <v>138.8</v>
       </c>
-      <c r="CA93" t="s" s="10">
-        <v>26</v>
+      <c r="CA93" t="n" s="10">
+        <v>142.4</v>
       </c>
       <c r="CB93" t="s" s="10">
         <v>26</v>
@@ -25952,8 +25952,8 @@
       <c r="BZ94" t="n" s="10">
         <v>128.7</v>
       </c>
-      <c r="CA94" t="s" s="10">
-        <v>26</v>
+      <c r="CA94" t="n" s="10">
+        <v>128.7</v>
       </c>
       <c r="CB94" t="s" s="10">
         <v>26</v>
@@ -26212,8 +26212,8 @@
       <c r="BZ95" t="n" s="10">
         <v>124.0</v>
       </c>
-      <c r="CA95" t="s" s="10">
-        <v>26</v>
+      <c r="CA95" t="n" s="10">
+        <v>124.7</v>
       </c>
       <c r="CB95" t="s" s="10">
         <v>26</v>
@@ -26472,8 +26472,8 @@
       <c r="BZ96" t="n" s="10">
         <v>113.6</v>
       </c>
-      <c r="CA96" t="s" s="10">
-        <v>26</v>
+      <c r="CA96" t="n" s="10">
+        <v>113.7</v>
       </c>
       <c r="CB96" t="s" s="10">
         <v>26</v>
@@ -26732,8 +26732,8 @@
       <c r="BZ97" t="n" s="10">
         <v>110.8</v>
       </c>
-      <c r="CA97" t="s" s="10">
-        <v>26</v>
+      <c r="CA97" t="n" s="10">
+        <v>111.2</v>
       </c>
       <c r="CB97" t="s" s="10">
         <v>26</v>
@@ -26992,8 +26992,8 @@
       <c r="BZ98" t="n" s="10">
         <v>117.0</v>
       </c>
-      <c r="CA98" t="s" s="10">
-        <v>26</v>
+      <c r="CA98" t="n" s="10">
+        <v>118.0</v>
       </c>
       <c r="CB98" t="s" s="10">
         <v>26</v>
@@ -27252,8 +27252,8 @@
       <c r="BZ99" t="n" s="10">
         <v>118.7</v>
       </c>
-      <c r="CA99" t="s" s="10">
-        <v>26</v>
+      <c r="CA99" t="n" s="10">
+        <v>119.2</v>
       </c>
       <c r="CB99" t="s" s="10">
         <v>26</v>
@@ -27512,8 +27512,8 @@
       <c r="BZ100" t="n" s="10">
         <v>118.6</v>
       </c>
-      <c r="CA100" t="s" s="10">
-        <v>26</v>
+      <c r="CA100" t="n" s="10">
+        <v>119.1</v>
       </c>
       <c r="CB100" t="s" s="10">
         <v>26</v>
@@ -27772,8 +27772,8 @@
       <c r="BZ101" t="n" s="10">
         <v>218.9</v>
       </c>
-      <c r="CA101" t="s" s="10">
-        <v>26</v>
+      <c r="CA101" t="n" s="10">
+        <v>226.3</v>
       </c>
       <c r="CB101" t="s" s="10">
         <v>26</v>
@@ -28032,8 +28032,8 @@
       <c r="BZ102" t="n" s="10">
         <v>217.6</v>
       </c>
-      <c r="CA102" t="s" s="10">
-        <v>26</v>
+      <c r="CA102" t="n" s="10">
+        <v>223.0</v>
       </c>
       <c r="CB102" t="s" s="10">
         <v>26</v>
@@ -28292,8 +28292,8 @@
       <c r="BZ103" t="n" s="10">
         <v>119.0</v>
       </c>
-      <c r="CA103" t="s" s="10">
-        <v>26</v>
+      <c r="CA103" t="n" s="10">
+        <v>119.8</v>
       </c>
       <c r="CB103" t="s" s="10">
         <v>26</v>
@@ -28552,8 +28552,8 @@
       <c r="BZ104" t="n" s="10">
         <v>112.7</v>
       </c>
-      <c r="CA104" t="s" s="10">
-        <v>26</v>
+      <c r="CA104" t="n" s="10">
+        <v>113.0</v>
       </c>
       <c r="CB104" t="s" s="10">
         <v>26</v>
@@ -28812,8 +28812,8 @@
       <c r="BZ105" t="n" s="10">
         <v>236.8</v>
       </c>
-      <c r="CA105" t="s" s="10">
-        <v>26</v>
+      <c r="CA105" t="n" s="10">
+        <v>228.5</v>
       </c>
       <c r="CB105" t="s" s="10">
         <v>26</v>
@@ -28864,7 +28864,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:37:21&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 06:48:36&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>